--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EJECUCIÓN ESTUDIOS\MAESTRIA EN GERENCIA SI Y PT\Tesis\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Downloads\ADSO-2901817\02-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C837A-02A3-4CB7-B990-40D8F1B6176F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA6892-6778-4326-B21A-CD6A59704BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="308">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -930,6 +930,44 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>https://repositorio.uss.edu.pe/bitstream/handle/20.500.12802/6783/Gonzales%20Gonzales%20Christian%20Erick.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>TRABAJO DE INVESTIGACIÓN
+UNA REVISIÓN DE LOS PATRONES DE DISEÑO DESOFTWARE APLICADO A LAS APLICACIONES
+WEB</t>
+  </si>
+  <si>
+    <t>google academico</t>
+  </si>
+  <si>
+    <t>patrones de diseño software "articulos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aplicación de patrones de diseño para garantizar alta flexibilidad en el software</t>
+  </si>
+  <si>
+    <t>https://revistas.ucv.edu.pe/index.php/rtd/article/view/1685/1496</t>
+  </si>
+  <si>
+    <t>Aplicación de patrones de diseño para garantizar alta flexibilidad en el software</t>
+  </si>
+  <si>
+    <t>Tesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Articulo de investigacion </t>
+  </si>
+  <si>
+    <t>https://bibdigital.epn.edu.ec/bitstream/15000/2669/1/CD-3355.pdf</t>
+  </si>
+  <si>
+    <t>GUÍA PRÁCTICA PARA EL USO DE PATRONES DE DISEÑO EN EL DESARROLLO DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>aplicar patrones de diseño para software "español "</t>
   </si>
 </sst>
 </file>
@@ -1141,15 +1179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1183,12 +1218,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,9 +1250,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1304,13 +1334,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,6 +1351,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1341,9 +1377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1381,7 +1417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1487,7 +1523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1629,7 +1665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1650,565 +1686,565 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69" style="18" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>1</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>2015</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
         <v>2016</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <v>1</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>1</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>1</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="16">
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="16">
         <v>1</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="16">
         <v>1</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <v>1</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <v>1</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16">
         <v>2012</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="16">
         <v>1</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="27"/>
+      <c r="I20" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2221,19 +2257,19 @@
       <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2248,19 +2284,19 @@
       <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2275,19 +2311,19 @@
       <c r="D24" s="1">
         <v>2020</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2302,17 +2338,17 @@
       <c r="D25" s="1">
         <v>2020</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2327,19 +2363,19 @@
       <c r="D26" s="1">
         <v>2017</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="14" t="s">
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2354,19 +2390,19 @@
       <c r="D27" s="1">
         <v>2015</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2381,19 +2417,19 @@
       <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2408,19 +2444,19 @@
       <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2435,19 +2471,19 @@
       <c r="D30" s="1">
         <v>2020</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2462,17 +2498,17 @@
       <c r="D31" s="1">
         <v>2008</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2487,247 +2523,247 @@
       <c r="D32" s="1">
         <v>2018</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="28">
         <v>30</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="32">
+      <c r="C33" s="9"/>
+      <c r="D33" s="28">
         <v>2020</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="28">
         <v>1</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="28">
         <v>31</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="32">
+      <c r="C34" s="9"/>
+      <c r="D34" s="28">
         <v>202</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="28">
         <v>1</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="28">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="32">
+      <c r="C35" s="9"/>
+      <c r="D35" s="28">
         <v>2015</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="28">
         <v>1</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="28">
         <v>33</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="32">
+      <c r="C36" s="9"/>
+      <c r="D36" s="28">
         <v>2020</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="28">
         <v>1</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="28">
         <v>34</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="32">
+      <c r="C37" s="9"/>
+      <c r="D37" s="28">
         <v>2007</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="28">
         <v>1</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="29" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="10"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="10"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="10"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="10"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="10"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="10"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G46" s="17"/>
+      <c r="G46" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I20" xr:uid="{9120DF18-0D78-4B36-87D3-873C50E5E09A}"/>
@@ -2793,94 +2829,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35">
+      <c r="A1" s="31">
         <v>20</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="31">
         <v>2018</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>21</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="31">
         <v>2018</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>22</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="31">
         <v>2020</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>16</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="31">
         <v>2017</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="41" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2906,2109 +2942,2109 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="46" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="46" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="31">
         <v>2017</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="31">
         <v>2018</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="31">
         <v>2016</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="31">
         <v>2018</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="31">
         <v>2015</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="31">
         <v>2016</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="31">
         <v>2013</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="31">
         <v>2018</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="31">
         <v>2016</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="31">
         <v>2014</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="31">
         <v>2015</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="31">
         <v>2014</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="31">
         <v>2015</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="31">
         <v>2013</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="31">
         <v>2012</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="31">
         <v>2017</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="31">
         <v>2016</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="31">
         <v>2012</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="31">
         <v>2020</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="31">
         <v>2017</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="31">
         <v>2015</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="31">
         <v>2015</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="31">
         <v>2014</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="31">
         <v>2020</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="41" t="s">
+      <c r="E25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="31">
         <v>2008</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="41" t="s">
+      <c r="E26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="31">
         <v>2018</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="41" t="s">
+      <c r="E27" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="35">
         <v>2020</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="35">
         <v>202</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="44" t="s">
+      <c r="E29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="35">
         <v>2020</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="35">
         <v>2007</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="35">
         <v>2020</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="35">
         <v>2006</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="35">
         <v>1994</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="44" t="s">
+      <c r="E34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="35">
         <v>2009</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="35">
         <v>2016</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="35">
         <v>1996</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="38" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="35">
         <v>2020</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="35">
         <v>1996</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="40" t="s">
+      <c r="D39" s="27"/>
+      <c r="E39" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="35">
         <v>2014</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G40" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="35">
         <v>2020</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="44" t="s">
+      <c r="E41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="35">
         <v>2014</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="35">
         <v>2015</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="44" t="s">
+      <c r="E43" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="35">
         <v>2020</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="44" t="s">
+      <c r="E44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="35">
         <v>2020</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="44" t="s">
+      <c r="E45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="35">
         <v>2020</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="35">
         <v>2001</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="35">
         <v>2011</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="44" t="s">
+      <c r="E48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="35">
         <v>2019</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="35">
         <v>2005</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="35">
         <v>2017</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="44" t="s">
+      <c r="E51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="35">
         <v>2020</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="44" t="s">
+      <c r="E52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="35">
         <v>2020</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="44" t="s">
+      <c r="E53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="35">
         <v>2015</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="44" t="s">
+      <c r="E54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G54" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="35">
         <v>2018</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="44" t="s">
+      <c r="E55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="35">
         <v>2017</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="35">
         <v>2018</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="44" t="s">
+      <c r="E57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="35">
         <v>2012</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="44" t="s">
+      <c r="E58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="35">
         <v>2008</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="35">
         <v>2016</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="40" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="35">
         <v>2018</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="44" t="s">
+      <c r="E61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="35">
         <v>1997</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F62" s="44" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="35">
         <v>1958</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G63" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="35">
         <v>2017</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G64" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35">
+      <c r="A65" s="31">
         <v>64</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="35">
         <v>2020</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="44" t="s">
+      <c r="E65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G65" s="40" t="s">
+      <c r="G65" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
-        <v>65</v>
-      </c>
-      <c r="B66" s="58" t="s">
+      <c r="A66" s="31">
+        <v>65</v>
+      </c>
+      <c r="B66" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="35">
         <v>2019</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" s="44" t="s">
+      <c r="E66" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
-        <v>66</v>
-      </c>
-      <c r="B67" s="58" t="s">
+      <c r="A67" s="31">
+        <v>66</v>
+      </c>
+      <c r="B67" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="35">
         <v>2019</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="40" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="G67" s="40" t="s">
+      <c r="G67" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35">
+      <c r="A68" s="31">
         <v>67</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="35">
         <v>2017</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="40" t="s">
+      <c r="G68" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
+      <c r="A69" s="31">
         <v>68</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="35">
         <v>1995</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="40" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="G69" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
+      <c r="A70" s="31">
         <v>69</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="35">
         <v>2021</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="44" t="s">
+      <c r="E70" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="G70" s="40" t="s">
+      <c r="G70" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
+      <c r="A71" s="31">
         <v>70</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="35">
         <v>2020</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="44" t="s">
+      <c r="E71" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G71" s="40" t="s">
+      <c r="G71" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35">
+      <c r="A72" s="31">
         <v>71</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="35">
         <v>2018</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="44" t="s">
+      <c r="E72" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="36" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35">
+      <c r="A73" s="31">
         <v>72</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="35">
         <v>1966</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="40" t="s">
+      <c r="G73" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="35">
+      <c r="A74" s="31">
         <v>73</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="35">
         <v>2001</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="G74" s="40" t="s">
+      <c r="G74" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35">
+      <c r="A75" s="31">
         <v>74</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="35">
         <v>2020</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="G75" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35">
+      <c r="A76" s="31">
         <v>75</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="35">
         <v>2004</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="G76" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35">
+      <c r="A77" s="31">
         <v>76</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="35">
         <v>1994</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="44" t="s">
+      <c r="E77" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="G77" s="36" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35">
+      <c r="A78" s="31">
         <v>77</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="35">
         <v>2014</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="44" t="s">
+      <c r="E78" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G78" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="35">
+      <c r="A79" s="31">
         <v>78</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="35">
         <v>2020</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="44" t="s">
+      <c r="E79" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="35">
+      <c r="A80" s="31">
         <v>79</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="35">
         <v>2019</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="E80" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F80" s="44" t="s">
+      <c r="E80" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35">
+      <c r="A81" s="31">
         <v>80</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="35">
         <v>2020</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="44" t="s">
+      <c r="E81" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="G81" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35">
+      <c r="A82" s="31">
         <v>81</v>
       </c>
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="35">
         <v>2020</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D82" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E82" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="44" t="s">
+      <c r="E82" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="G82" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="35">
+      <c r="A83" s="31">
         <v>82</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="35">
         <v>2020</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="E83" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="44" t="s">
+      <c r="E83" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="G83" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35">
+      <c r="A84" s="31">
         <v>83</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="35">
         <v>2020</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="G84" s="40" t="s">
+      <c r="G84" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35">
+      <c r="A85" s="31">
         <v>84</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="47">
         <v>2020</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" s="48" t="s">
+      <c r="E85" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35">
+      <c r="A86" s="31">
         <v>85</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="47">
         <v>2020</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="48" t="s">
+      <c r="E86" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G86" s="40" t="s">
+      <c r="G86" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35">
+      <c r="A87" s="31">
         <v>86</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="47">
         <v>2020</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="48" t="s">
+      <c r="E87" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G87" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="54">
+      <c r="A88" s="50">
         <v>87</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C88" s="51">
+      <c r="C88" s="47">
         <v>2020</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="E88" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="48" t="s">
+      <c r="E88" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="G88" s="53" t="s">
+      <c r="G88" s="49" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35">
+      <c r="A89" s="31">
         <v>88</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="35">
         <v>2006</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="G89" s="40" t="s">
+      <c r="G89" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
+      <c r="A90" s="31">
         <v>89</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="35">
         <v>2020</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E90" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F90" s="44" t="s">
+      <c r="E90" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="G90" s="40" t="s">
+      <c r="G90" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="35">
+      <c r="A91" s="31">
         <v>90</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="35">
         <v>2013</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="40" t="s">
+      <c r="G91" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="35">
+      <c r="A92" s="31">
         <v>91</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="35">
         <v>2013</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="G92" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5108,7 +5144,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G92"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,2108 +5153,2108 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="61" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="39">
-        <v>2007</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2014</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="31">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="F5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1996</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="31">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="31">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2005</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="35">
         <v>2017</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D19" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2004</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2006</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2009</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2013</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2012</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="35">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="35">
+        <v>2013</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="31">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="31">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2014</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="31">
+        <v>2012</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="35">
+        <v>202</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="35">
+        <v>2011</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>40</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>41</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="35">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <v>42</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <v>43</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>44</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="35">
+        <v>2019</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>45</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="35">
+        <v>1997</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
+        <v>47</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="35">
+        <v>2017</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
+        <v>48</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>49</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <v>50</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="35">
+        <v>2013</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
+        <v>51</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="35">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>53</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
+        <v>54</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B56" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
+        <v>56</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="31">
+        <v>2017</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="31">
+        <v>57</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="31">
+        <v>58</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="35">
+        <v>1994</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
+        <v>59</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="35">
+        <v>1996</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="31">
+        <v>60</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="31">
+        <v>61</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="35">
+        <v>2001</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="31">
+        <v>62</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="35">
+        <v>2008</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
+        <v>63</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="35">
+        <v>1958</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
+        <v>64</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="35">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="31">
+        <v>65</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="35">
+        <v>1995</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
+        <v>66</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="35">
+        <v>1966</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <v>67</v>
+      </c>
+      <c r="B68" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="35">
+        <v>2001</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <v>68</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="35">
+        <v>2006</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
+        <v>69</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="35">
         <v>2016</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="35">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>5</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="D70" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
+        <v>70</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="35">
+        <v>2016</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="31">
+        <v>71</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="35">
         <v>2018</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>6</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="35">
-        <v>2016</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>7</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="39">
+      <c r="D72" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="31">
+        <v>72</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="35">
+        <v>1994</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="31">
+        <v>73</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
+        <v>74</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="31">
+        <v>2014</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="31">
+        <v>75</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="31">
+        <v>2018</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A77" s="31">
+        <v>76</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A78" s="31">
+        <v>77</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="31">
+        <v>2008</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="31">
+        <v>78</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="35">
         <v>2020</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="39">
-        <v>1996</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>9</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="D79" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="31">
+        <v>79</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D80" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="31">
+        <v>80</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="31">
+        <v>81</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="31">
+        <v>82</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="31">
+        <v>83</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="31">
+        <v>84</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="31">
+        <v>85</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="31">
+        <v>86</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
+        <v>87</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
+        <v>88</v>
+      </c>
+      <c r="B89" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="31">
+        <v>89</v>
+      </c>
+      <c r="B90" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="35">
         <v>2015</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>10</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="35">
-        <v>2014</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>11</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="35">
-        <v>2015</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>12</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="D90" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="31">
+        <v>90</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="35">
         <v>2018</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>13</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="35">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>14</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="35">
-        <v>2015</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>15</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="35">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>16</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="39">
-        <v>2005</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>17</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="39">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>18</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="39">
-        <v>2017</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>19</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="39">
-        <v>2004</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>20</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="39">
-        <v>2006</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>21</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="39">
-        <v>2009</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>22</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="39">
-        <v>2014</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>23</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="35">
-        <v>2013</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>24</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="D91" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="31">
+        <v>91</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="35">
         <v>2012</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>25</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>26</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>27</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="39">
-        <v>2019</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>28</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="39">
-        <v>2013</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>29</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="39">
-        <v>2017</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>30</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="35">
-        <v>2013</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>31</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="35">
-        <v>2018</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>32</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="35">
-        <v>2016</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
-        <v>33</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="35">
-        <v>2014</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="35">
-        <v>2012</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
-        <v>35</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="C36" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
-        <v>36</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
-        <v>37</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
-        <v>38</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="39">
-        <v>202</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
-        <v>39</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="39">
-        <v>2011</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
-        <v>40</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="39">
-        <v>2018</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
-        <v>41</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="39">
-        <v>2015</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
-        <v>42</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="39">
-        <v>2014</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
-        <v>43</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
-        <v>44</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="39">
-        <v>2019</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
-        <v>45</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="C46" s="39">
-        <v>1997</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
-        <v>46</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="35">
-        <v>2020</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
-        <v>47</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="39">
-        <v>2017</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
-        <v>48</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
-        <v>49</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
-        <v>50</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="39">
-        <v>2013</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F51" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="35">
-        <v>51</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="39">
-        <v>2019</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="35">
-        <v>52</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
-        <v>53</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
-        <v>54</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="C55" s="39">
-        <v>2021</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="35">
-        <v>55</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="35">
-        <v>2020</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
-        <v>56</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="35">
-        <v>2017</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
-        <v>57</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
-        <v>58</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="39">
-        <v>1994</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
-        <v>59</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="39">
-        <v>1996</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
-        <v>60</v>
-      </c>
-      <c r="B61" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
-        <v>61</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" s="39">
-        <v>2001</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="35">
-        <v>62</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="39">
-        <v>2008</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
-        <v>63</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="39">
-        <v>1958</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
-        <v>64</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="39">
-        <v>2017</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
-        <v>65</v>
-      </c>
-      <c r="B66" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="39">
-        <v>1995</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="F66" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
-        <v>66</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="39">
-        <v>1966</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="F67" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="35">
-        <v>67</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="39">
-        <v>2001</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
-        <v>68</v>
-      </c>
-      <c r="B69" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="39">
-        <v>2006</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="35">
-        <v>69</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="39">
-        <v>2016</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="35">
-        <v>70</v>
-      </c>
-      <c r="B71" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="39">
-        <v>2016</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="35">
-        <v>71</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" s="39">
-        <v>2018</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="35">
-        <v>72</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C73" s="39">
-        <v>1994</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35">
-        <v>73</v>
-      </c>
-      <c r="B74" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="35">
-        <v>2015</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="35">
-        <v>74</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" s="35">
-        <v>2014</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="35">
-        <v>75</v>
-      </c>
-      <c r="B76" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="35">
-        <v>2018</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F76" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A77" s="35">
-        <v>76</v>
-      </c>
-      <c r="B77" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="35">
-        <v>2015</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A78" s="35">
-        <v>77</v>
-      </c>
-      <c r="B78" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="35">
-        <v>2008</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="35">
-        <v>78</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C79" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="35">
-        <v>79</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D80" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F80" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="35">
-        <v>80</v>
-      </c>
-      <c r="B81" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C81" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="35">
-        <v>81</v>
-      </c>
-      <c r="B82" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D82" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="35">
-        <v>82</v>
-      </c>
-      <c r="B83" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="35">
-        <v>83</v>
-      </c>
-      <c r="B84" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D84" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E84" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="F84" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="G84" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="35">
-        <v>84</v>
-      </c>
-      <c r="B85" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D85" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="G85" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="35">
-        <v>85</v>
-      </c>
-      <c r="B86" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D86" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="E86" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="G86" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="35">
-        <v>86</v>
-      </c>
-      <c r="B87" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D87" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="G87" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="35">
-        <v>87</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C88" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="G88" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="35">
-        <v>88</v>
-      </c>
-      <c r="B89" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="39">
-        <v>2014</v>
-      </c>
-      <c r="D89" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F89" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
-        <v>89</v>
-      </c>
-      <c r="B90" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="39">
-        <v>2015</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F90" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G90" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="35">
-        <v>90</v>
-      </c>
-      <c r="B91" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="39">
-        <v>2018</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="35">
-        <v>91</v>
-      </c>
-      <c r="B92" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="39">
-        <v>2012</v>
-      </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E92" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F92" s="62" t="s">
+      <c r="E92" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="G92" s="36" t="s">
         <v>157</v>
       </c>
     </row>

--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Downloads\ADSO-2901817\02-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA6892-6778-4326-B21A-CD6A59704BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD53B7-D982-4044-9425-B2FEBCB06AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="311">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -968,6 +968,15 @@
   </si>
   <si>
     <t>aplicar patrones de diseño para software "español "</t>
+  </si>
+  <si>
+    <t>Incidencia de los patrones de diseño en la seguridad de aplicaciones web</t>
+  </si>
+  <si>
+    <t>Incidencia de los patrones de diseño de software en la seguridad de aplicaciones web</t>
+  </si>
+  <si>
+    <t>https://www.investigarmqr.com/ojs/index.php/mqr/article/view/886/3451</t>
   </si>
 </sst>
 </file>
@@ -5143,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5250,24 +5259,24 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="C5" s="31">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>102</v>
+        <v>2024</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>310</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>66</v>
@@ -7284,68 +7293,68 @@
     <hyperlink ref="D78" r:id="rId18" xr:uid="{ED2C2E3D-C8F8-4737-9400-76B94B25126B}"/>
     <hyperlink ref="D76" r:id="rId19" xr:uid="{82670C53-B3A4-4B81-90A9-457AB0FE882D}"/>
     <hyperlink ref="D16" r:id="rId20" xr:uid="{F7DEDA02-4B2E-49CB-A748-324E93F18387}"/>
-    <hyperlink ref="D5" r:id="rId21" xr:uid="{872B42F8-EF4D-402F-9BF4-C57F88ADD296}"/>
-    <hyperlink ref="D6" r:id="rId22" xr:uid="{B162D1F6-D3FD-4DF7-AB8A-0038917C9E55}"/>
-    <hyperlink ref="D32" r:id="rId23" xr:uid="{3449EBC5-D975-4257-BD6B-877F359E53EB}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{5E6BA7B5-FDC6-4D97-A663-19D52F11BE8B}"/>
-    <hyperlink ref="D35" r:id="rId25" xr:uid="{3EA2D051-4814-423F-A880-D29703BA4D57}"/>
-    <hyperlink ref="D7" r:id="rId26" xr:uid="{8AB5A760-4065-4104-8AB5-0563EEAC1058}"/>
-    <hyperlink ref="D38" r:id="rId27" xr:uid="{58D57E45-45B3-4F6B-8F1E-B36D4BF68C44}"/>
-    <hyperlink ref="D39" r:id="rId28" xr:uid="{B1DE93B6-460D-4922-8BCA-51CF8ABCCFBC}"/>
-    <hyperlink ref="D36" r:id="rId29" xr:uid="{A176CBE3-F955-4049-874F-B42EAAC2027E}"/>
-    <hyperlink ref="D2" r:id="rId30" xr:uid="{6802343D-DDC2-4D94-8017-4463DB6BC87D}"/>
-    <hyperlink ref="D27" r:id="rId31" xr:uid="{0006BC8A-E3A8-4F9F-B94F-4AF009EEBDD4}"/>
-    <hyperlink ref="D69" r:id="rId32" xr:uid="{4C7DE9A0-5C68-4508-800F-44A10ABA64B2}"/>
-    <hyperlink ref="D59" r:id="rId33" xr:uid="{E4DABA74-942D-4B38-BBE1-BEF5395E067D}"/>
-    <hyperlink ref="D70" r:id="rId34" xr:uid="{775E905F-DD25-49FC-B8A7-F218757C91C4}"/>
-    <hyperlink ref="D8" r:id="rId35" xr:uid="{3679B41C-D2A6-437E-9A47-CC84BCFB16B7}"/>
-    <hyperlink ref="D23" r:id="rId36" xr:uid="{1D36AC7D-3850-4725-B134-F19BAE6FA7F2}"/>
-    <hyperlink ref="D58" r:id="rId37" xr:uid="{B14ED6C1-BF98-435D-A1F5-E239BAB92BB3}"/>
-    <hyperlink ref="D89" r:id="rId38" xr:uid="{3A897FF2-63AB-4441-A475-2A0271ECF8DA}"/>
-    <hyperlink ref="D90" r:id="rId39" xr:uid="{7A86620D-9309-42A0-BDBD-5C6F7F68BC41}"/>
-    <hyperlink ref="D79" r:id="rId40" xr:uid="{8337E91E-240A-4001-BC68-BDFADB3BB4B4}"/>
-    <hyperlink ref="D54" r:id="rId41" xr:uid="{A99635C9-86BA-429C-82C7-72AF13E1CC1C}"/>
-    <hyperlink ref="D40" r:id="rId42" xr:uid="{F630A5DA-6F02-4941-901A-BCA0B41656D8}"/>
-    <hyperlink ref="D28" r:id="rId43" xr:uid="{858B8F09-B529-4F75-A49A-AAD1E0B459C2}"/>
-    <hyperlink ref="D17" r:id="rId44" xr:uid="{0A99CAB2-61BD-4784-BB24-362B4BBA4300}"/>
-    <hyperlink ref="D48" r:id="rId45" xr:uid="{9501DFEE-EBC1-4CFE-BD9E-5EB3FCB7BBDC}"/>
-    <hyperlink ref="D49" r:id="rId46" xr:uid="{8A723DCB-AF71-448A-8AB6-367E4E3F0F93}"/>
-    <hyperlink ref="D50" r:id="rId47" xr:uid="{9160682F-1E7B-4DEC-A868-F13D73B2CFB9}"/>
-    <hyperlink ref="D42" r:id="rId48" location="t-102445" xr:uid="{2212BC17-7323-4727-A51F-44F24013F723}"/>
-    <hyperlink ref="D91" r:id="rId49" xr:uid="{38CBD180-D0A8-42FD-A55A-F6EDF5CB9EE9}"/>
-    <hyperlink ref="D30" r:id="rId50" xr:uid="{877EC4D2-0335-4805-8C58-939544C93D08}"/>
-    <hyperlink ref="D41" r:id="rId51" xr:uid="{6D966A23-BAAA-4C29-B928-03C4E21A1F96}"/>
-    <hyperlink ref="D92" r:id="rId52" xr:uid="{C164C877-14BB-4810-B6BB-AEEC7B3D0841}"/>
-    <hyperlink ref="D63" r:id="rId53" xr:uid="{52E162F5-BD8F-4110-B90A-6CA53F7FB27A}"/>
-    <hyperlink ref="D13" r:id="rId54" xr:uid="{A845A3F5-18D7-42C6-8622-265C6EDD47B0}"/>
-    <hyperlink ref="D64" r:id="rId55" xr:uid="{00CECE32-75F2-402E-9C1D-D71237350FC5}"/>
-    <hyperlink ref="D65" r:id="rId56" xr:uid="{63F05EA2-52DF-46E3-8D50-B458E8E158A7}"/>
-    <hyperlink ref="D80" r:id="rId57" xr:uid="{5598D25D-6230-4E41-906A-10DB92F4D9BF}"/>
-    <hyperlink ref="D52" r:id="rId58" xr:uid="{6AE9F1DE-E6E4-4222-B30F-FF9EA1C69C36}"/>
-    <hyperlink ref="D19" r:id="rId59" xr:uid="{7F2174CA-EF75-478B-A07B-94E6A6DC6B53}"/>
-    <hyperlink ref="D55" r:id="rId60" xr:uid="{23E95BF5-80D8-4645-B267-0F51099A85B5}"/>
-    <hyperlink ref="D53" r:id="rId61" xr:uid="{2221D79F-5953-4F59-A620-DE3266459B59}"/>
-    <hyperlink ref="D72" r:id="rId62" location="iso:std:iso:30401:ed-1:v1:en" xr:uid="{058F8D78-8582-47FD-8821-E6D3D4BB8BA6}"/>
-    <hyperlink ref="D67" r:id="rId63" xr:uid="{561C407A-CC97-4210-BA07-7993373A7127}"/>
-    <hyperlink ref="D68" r:id="rId64" xr:uid="{282B12D9-89C2-4DB3-915E-358CAA2478CA}"/>
-    <hyperlink ref="D26" r:id="rId65" xr:uid="{C86B6683-58B2-4A98-993C-2C4B1C2D0006}"/>
-    <hyperlink ref="D20" r:id="rId66" xr:uid="{F6DA80DA-FD67-46AB-81D5-DF0FD5503F51}"/>
-    <hyperlink ref="D73" r:id="rId67" xr:uid="{171A7F5C-71A3-4686-8010-BAE176D817E1}"/>
-    <hyperlink ref="D43" r:id="rId68" xr:uid="{B03D9E1E-DE0D-4FB9-8EF4-263E90812191}"/>
-    <hyperlink ref="D44" r:id="rId69" xr:uid="{C4E5955C-2E9D-4631-83D6-66F4BA28AF24}"/>
-    <hyperlink ref="D45" r:id="rId70" xr:uid="{940ECD88-CEAE-4FFB-B40D-B9BC4FEE4E4D}"/>
-    <hyperlink ref="D81" r:id="rId71" xr:uid="{83750FA3-0061-447C-916A-3DE3FF6E6E36}"/>
-    <hyperlink ref="D82" r:id="rId72" xr:uid="{926A5796-A779-45F2-99EE-D38215D4C170}"/>
-    <hyperlink ref="D83" r:id="rId73" xr:uid="{BF3034D0-38D1-42B7-A323-1DC083AD9FF1}"/>
-    <hyperlink ref="D84" r:id="rId74" xr:uid="{5056F6A4-9F6C-4A0F-98BB-35A2FC0DFF48}"/>
-    <hyperlink ref="D85" r:id="rId75" xr:uid="{C9AC91C2-81A5-4A99-8460-F78F57F09809}"/>
-    <hyperlink ref="D86" r:id="rId76" xr:uid="{C553BBB3-713C-445F-AC6B-C6948F9FC582}"/>
-    <hyperlink ref="D87" r:id="rId77" xr:uid="{E41F7C7D-AF42-48E9-B8DF-DE00EA2F259A}"/>
-    <hyperlink ref="D88" r:id="rId78" xr:uid="{9CC18177-D73C-4FF8-8E36-179EA0DD3370}"/>
-    <hyperlink ref="D21" r:id="rId79" xr:uid="{9EBA97C7-C18C-4A22-85EC-FB321E23061E}"/>
-    <hyperlink ref="D37" r:id="rId80" xr:uid="{9F6C6577-86D2-4C9B-93FC-FAD7EDB3742A}"/>
-    <hyperlink ref="D51" r:id="rId81" xr:uid="{F6B0FB81-C76D-4A84-9736-711E7168428A}"/>
-    <hyperlink ref="D29" r:id="rId82" xr:uid="{F689FD28-4552-4D25-9308-D421BC8A9CD6}"/>
+    <hyperlink ref="D6" r:id="rId21" xr:uid="{B162D1F6-D3FD-4DF7-AB8A-0038917C9E55}"/>
+    <hyperlink ref="D32" r:id="rId22" xr:uid="{3449EBC5-D975-4257-BD6B-877F359E53EB}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{5E6BA7B5-FDC6-4D97-A663-19D52F11BE8B}"/>
+    <hyperlink ref="D35" r:id="rId24" xr:uid="{3EA2D051-4814-423F-A880-D29703BA4D57}"/>
+    <hyperlink ref="D7" r:id="rId25" xr:uid="{8AB5A760-4065-4104-8AB5-0563EEAC1058}"/>
+    <hyperlink ref="D38" r:id="rId26" xr:uid="{58D57E45-45B3-4F6B-8F1E-B36D4BF68C44}"/>
+    <hyperlink ref="D39" r:id="rId27" xr:uid="{B1DE93B6-460D-4922-8BCA-51CF8ABCCFBC}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{A176CBE3-F955-4049-874F-B42EAAC2027E}"/>
+    <hyperlink ref="D2" r:id="rId29" xr:uid="{6802343D-DDC2-4D94-8017-4463DB6BC87D}"/>
+    <hyperlink ref="D27" r:id="rId30" xr:uid="{0006BC8A-E3A8-4F9F-B94F-4AF009EEBDD4}"/>
+    <hyperlink ref="D69" r:id="rId31" xr:uid="{4C7DE9A0-5C68-4508-800F-44A10ABA64B2}"/>
+    <hyperlink ref="D59" r:id="rId32" xr:uid="{E4DABA74-942D-4B38-BBE1-BEF5395E067D}"/>
+    <hyperlink ref="D70" r:id="rId33" xr:uid="{775E905F-DD25-49FC-B8A7-F218757C91C4}"/>
+    <hyperlink ref="D8" r:id="rId34" xr:uid="{3679B41C-D2A6-437E-9A47-CC84BCFB16B7}"/>
+    <hyperlink ref="D23" r:id="rId35" xr:uid="{1D36AC7D-3850-4725-B134-F19BAE6FA7F2}"/>
+    <hyperlink ref="D58" r:id="rId36" xr:uid="{B14ED6C1-BF98-435D-A1F5-E239BAB92BB3}"/>
+    <hyperlink ref="D89" r:id="rId37" xr:uid="{3A897FF2-63AB-4441-A475-2A0271ECF8DA}"/>
+    <hyperlink ref="D90" r:id="rId38" xr:uid="{7A86620D-9309-42A0-BDBD-5C6F7F68BC41}"/>
+    <hyperlink ref="D79" r:id="rId39" xr:uid="{8337E91E-240A-4001-BC68-BDFADB3BB4B4}"/>
+    <hyperlink ref="D54" r:id="rId40" xr:uid="{A99635C9-86BA-429C-82C7-72AF13E1CC1C}"/>
+    <hyperlink ref="D40" r:id="rId41" xr:uid="{F630A5DA-6F02-4941-901A-BCA0B41656D8}"/>
+    <hyperlink ref="D28" r:id="rId42" xr:uid="{858B8F09-B529-4F75-A49A-AAD1E0B459C2}"/>
+    <hyperlink ref="D17" r:id="rId43" xr:uid="{0A99CAB2-61BD-4784-BB24-362B4BBA4300}"/>
+    <hyperlink ref="D48" r:id="rId44" xr:uid="{9501DFEE-EBC1-4CFE-BD9E-5EB3FCB7BBDC}"/>
+    <hyperlink ref="D49" r:id="rId45" xr:uid="{8A723DCB-AF71-448A-8AB6-367E4E3F0F93}"/>
+    <hyperlink ref="D50" r:id="rId46" xr:uid="{9160682F-1E7B-4DEC-A868-F13D73B2CFB9}"/>
+    <hyperlink ref="D42" r:id="rId47" location="t-102445" xr:uid="{2212BC17-7323-4727-A51F-44F24013F723}"/>
+    <hyperlink ref="D91" r:id="rId48" xr:uid="{38CBD180-D0A8-42FD-A55A-F6EDF5CB9EE9}"/>
+    <hyperlink ref="D30" r:id="rId49" xr:uid="{877EC4D2-0335-4805-8C58-939544C93D08}"/>
+    <hyperlink ref="D41" r:id="rId50" xr:uid="{6D966A23-BAAA-4C29-B928-03C4E21A1F96}"/>
+    <hyperlink ref="D92" r:id="rId51" xr:uid="{C164C877-14BB-4810-B6BB-AEEC7B3D0841}"/>
+    <hyperlink ref="D63" r:id="rId52" xr:uid="{52E162F5-BD8F-4110-B90A-6CA53F7FB27A}"/>
+    <hyperlink ref="D13" r:id="rId53" xr:uid="{A845A3F5-18D7-42C6-8622-265C6EDD47B0}"/>
+    <hyperlink ref="D64" r:id="rId54" xr:uid="{00CECE32-75F2-402E-9C1D-D71237350FC5}"/>
+    <hyperlink ref="D65" r:id="rId55" xr:uid="{63F05EA2-52DF-46E3-8D50-B458E8E158A7}"/>
+    <hyperlink ref="D80" r:id="rId56" xr:uid="{5598D25D-6230-4E41-906A-10DB92F4D9BF}"/>
+    <hyperlink ref="D52" r:id="rId57" xr:uid="{6AE9F1DE-E6E4-4222-B30F-FF9EA1C69C36}"/>
+    <hyperlink ref="D19" r:id="rId58" xr:uid="{7F2174CA-EF75-478B-A07B-94E6A6DC6B53}"/>
+    <hyperlink ref="D55" r:id="rId59" xr:uid="{23E95BF5-80D8-4645-B267-0F51099A85B5}"/>
+    <hyperlink ref="D53" r:id="rId60" xr:uid="{2221D79F-5953-4F59-A620-DE3266459B59}"/>
+    <hyperlink ref="D72" r:id="rId61" location="iso:std:iso:30401:ed-1:v1:en" xr:uid="{058F8D78-8582-47FD-8821-E6D3D4BB8BA6}"/>
+    <hyperlink ref="D67" r:id="rId62" xr:uid="{561C407A-CC97-4210-BA07-7993373A7127}"/>
+    <hyperlink ref="D68" r:id="rId63" xr:uid="{282B12D9-89C2-4DB3-915E-358CAA2478CA}"/>
+    <hyperlink ref="D26" r:id="rId64" xr:uid="{C86B6683-58B2-4A98-993C-2C4B1C2D0006}"/>
+    <hyperlink ref="D20" r:id="rId65" xr:uid="{F6DA80DA-FD67-46AB-81D5-DF0FD5503F51}"/>
+    <hyperlink ref="D73" r:id="rId66" xr:uid="{171A7F5C-71A3-4686-8010-BAE176D817E1}"/>
+    <hyperlink ref="D43" r:id="rId67" xr:uid="{B03D9E1E-DE0D-4FB9-8EF4-263E90812191}"/>
+    <hyperlink ref="D44" r:id="rId68" xr:uid="{C4E5955C-2E9D-4631-83D6-66F4BA28AF24}"/>
+    <hyperlink ref="D45" r:id="rId69" xr:uid="{940ECD88-CEAE-4FFB-B40D-B9BC4FEE4E4D}"/>
+    <hyperlink ref="D81" r:id="rId70" xr:uid="{83750FA3-0061-447C-916A-3DE3FF6E6E36}"/>
+    <hyperlink ref="D82" r:id="rId71" xr:uid="{926A5796-A779-45F2-99EE-D38215D4C170}"/>
+    <hyperlink ref="D83" r:id="rId72" xr:uid="{BF3034D0-38D1-42B7-A323-1DC083AD9FF1}"/>
+    <hyperlink ref="D84" r:id="rId73" xr:uid="{5056F6A4-9F6C-4A0F-98BB-35A2FC0DFF48}"/>
+    <hyperlink ref="D85" r:id="rId74" xr:uid="{C9AC91C2-81A5-4A99-8460-F78F57F09809}"/>
+    <hyperlink ref="D86" r:id="rId75" xr:uid="{C553BBB3-713C-445F-AC6B-C6948F9FC582}"/>
+    <hyperlink ref="D87" r:id="rId76" xr:uid="{E41F7C7D-AF42-48E9-B8DF-DE00EA2F259A}"/>
+    <hyperlink ref="D88" r:id="rId77" xr:uid="{9CC18177-D73C-4FF8-8E36-179EA0DD3370}"/>
+    <hyperlink ref="D21" r:id="rId78" xr:uid="{9EBA97C7-C18C-4A22-85EC-FB321E23061E}"/>
+    <hyperlink ref="D37" r:id="rId79" xr:uid="{9F6C6577-86D2-4C9B-93FC-FAD7EDB3742A}"/>
+    <hyperlink ref="D51" r:id="rId80" xr:uid="{F6B0FB81-C76D-4A84-9736-711E7168428A}"/>
+    <hyperlink ref="D29" r:id="rId81" xr:uid="{F689FD28-4552-4D25-9308-D421BC8A9CD6}"/>
+    <hyperlink ref="D5" r:id="rId82" xr:uid="{8EC10727-B27D-4E21-B65D-2E5D302FE622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Downloads\ADSO-2901817\02-session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b965202a72a8c85f/Desktop/ADSO-2901817/02-session/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD53B7-D982-4044-9425-B2FEBCB06AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12AD53B7-D982-4044-9425-B2FEBCB06AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB25F187-ED11-4368-8505-8D64B513974F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20790" windowHeight="15585" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="327">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -977,6 +977,55 @@
   </si>
   <si>
     <t>https://www.investigarmqr.com/ojs/index.php/mqr/article/view/886/3451</t>
+  </si>
+  <si>
+    <t>patrones de diseño software "colombia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSIDAD COOPERATIVA DE COLOMBIA RUTA DE CLASE N0.3: Patrones de Diseño. </t>
+  </si>
+  <si>
+    <t>https://repository.ucc.edu.co/bitstreams/fddbdcca-805f-4384-a6f4-be5ca3fed330/download</t>
+  </si>
+  <si>
+    <t>Patrones de Diseño Refactorización y Antipatrones Ventajas y Desventajas de su Utilización en el Software Orientado a Objetos</t>
+  </si>
+  <si>
+    <t>https://revistas.ucasal.edu.ar/index.php/CI/article/view/178?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Patrones   de   Diseño,   Refactorización   y   Antipatrones.   Ventajas  y  Desventajas  de  su  Utilización  en  el  Software  Orientado a Objetos</t>
+  </si>
+  <si>
+    <t>https://bibliotecas.ucasal.edu.ar/opac_css/index.php?lvl=cmspage&amp;pageid=24&amp;id_notice=60533</t>
+  </si>
+  <si>
+    <t>Patrones de diseño, refactorización y antipatrones : Ventajas y desventajas de su utilización en el software orientado a objetos</t>
+  </si>
+  <si>
+    <t>Patrones y Antipatrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOLOGÍA PARA EL REUSO EFECTIVO DE PATRONES DE REQUISITOS EN LA INGENIERÍA DE SOFTWARE </t>
+  </si>
+  <si>
+    <t>https://dspace.tdea.edu.co/entities/publication/c9505ba8-56dc-4c96-83c7-56df101e1ab8</t>
+  </si>
+  <si>
+    <t>antipatrones desarrollo de software "articulos "</t>
+  </si>
+  <si>
+    <t>https://osgg.net/omarsite/resources/papers/ev_arch_02.pdf</t>
+  </si>
+  <si>
+    <t>Evaluando la arquitectura de software</t>
+  </si>
+  <si>
+    <t>Modelo Teórico para la Identificacion del Antipatron
+"Stovepipe System " en la Etapa de la Implementacion de una Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>http://revistasbolivianas.umsa.bo/scielo.php?pid=S3333-77772014000100023&amp;script=sci_arttext&amp;tlng=es</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,11 +1410,35 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5152,8 +5225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,26 +5240,26 @@
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5194,22 +5267,22 @@
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="64">
         <v>2020</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="67" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5217,22 +5290,22 @@
       <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="21">
         <v>2014</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5240,22 +5313,22 @@
       <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="21">
         <v>2010</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="67" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5263,68 +5336,68 @@
       <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="21">
         <v>2024</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="31">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="31">
-        <v>2016</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="B7" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2009</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5332,89 +5405,91 @@
       <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="35">
-        <v>2020</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2009</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="35">
-        <v>1996</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="B9" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="31">
-        <v>2015</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2007</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="B11" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="21">
         <v>2014</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="41" t="s">
+      <c r="D11" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6518,7 +6593,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>59</v>
       </c>
@@ -6650,7 +6725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
         <v>65</v>
       </c>
@@ -6968,7 +7043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>79</v>
       </c>
@@ -6991,7 +7066,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>80</v>
       </c>
@@ -7014,7 +7089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
         <v>81</v>
       </c>
@@ -7037,7 +7112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>82</v>
       </c>
@@ -7060,7 +7135,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>83</v>
       </c>
@@ -7083,7 +7158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <v>84</v>
       </c>
@@ -7106,7 +7181,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <v>85</v>
       </c>
@@ -7129,7 +7204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
         <v>86</v>
       </c>
@@ -7175,7 +7250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>88</v>
       </c>
@@ -7198,7 +7273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <v>89</v>
       </c>
@@ -7244,7 +7319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>91</v>
       </c>
@@ -7355,7 +7430,9 @@
     <hyperlink ref="D51" r:id="rId80" xr:uid="{F6B0FB81-C76D-4A84-9736-711E7168428A}"/>
     <hyperlink ref="D29" r:id="rId81" xr:uid="{F689FD28-4552-4D25-9308-D421BC8A9CD6}"/>
     <hyperlink ref="D5" r:id="rId82" xr:uid="{8EC10727-B27D-4E21-B65D-2E5D302FE622}"/>
+    <hyperlink ref="D9" r:id="rId83" xr:uid="{74AD30D2-3F30-468C-8863-A625EC79A43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId84"/>
 </worksheet>
 </file>
--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b965202a72a8c85f/Desktop/ADSO-2901817/02-session/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielC\Downloads\ADSO-2901817\02-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12AD53B7-D982-4044-9425-B2FEBCB06AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB25F187-ED11-4368-8505-8D64B513974F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C5C08-9BB3-4E4E-962A-611B4227D364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20790" windowHeight="15585" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="358">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -958,9 +958,6 @@
     <t>Tesis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Articulo de investigacion </t>
-  </si>
-  <si>
     <t>https://bibdigital.epn.edu.ec/bitstream/15000/2669/1/CD-3355.pdf</t>
   </si>
   <si>
@@ -1026,6 +1023,103 @@
   </si>
   <si>
     <t>http://revistasbolivianas.umsa.bo/scielo.php?pid=S3333-77772014000100023&amp;script=sci_arttext&amp;tlng=es</t>
+  </si>
+  <si>
+    <t>Impacto del uso de patrones de diseño en la industria del software en Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrones de diseño que itilizan las emprezas </t>
+  </si>
+  <si>
+    <t>https://revistas.ulatina.ac.cr/index.php/tecnologiavital/article/view/249</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=9042927</t>
+  </si>
+  <si>
+    <t>Análisis comparativo de Patrones de Diseño de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Articulo </t>
+  </si>
+  <si>
+    <t>https://ccia.esei.uvigo.es/docencia/SCS/articulo-j2ee.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis comparativo de Patrones de Diseño de Software  </t>
+  </si>
+  <si>
+    <t>Arquitectura empresarial y software libre, J2EE</t>
+  </si>
+  <si>
+    <t>Google academico</t>
+  </si>
+  <si>
+    <t>https://es.scribd.com/document/127963169/Antipatrones-de-Software</t>
+  </si>
+  <si>
+    <t>Antipatrones de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> google academico</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>patrones de diseño y antipatrones "articulos " "revistas " español</t>
+  </si>
+  <si>
+    <t>Anti-patrones: la mejor forma de hacer un pésimo sistema de software.</t>
+  </si>
+  <si>
+    <t>https://sg.com.mx/revista/11/anti-patrones-la-mejor-forma-hacer-un-pesimo-sistema-software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no fecha </t>
+  </si>
+  <si>
+    <t>https://es.scribd.com/document/62574633/Patrones-y-Antipatrones</t>
+  </si>
+  <si>
+    <t>https://docta.ucm.es/entities/publication/14b254d6-2bc6-481b-abd8-460469bf2dd0</t>
+  </si>
+  <si>
+    <t>Integración de patrones de seguridad y patrones de diseño J2EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis Patrones de Diseño de Software  </t>
+  </si>
+  <si>
+    <t>USO DE PATRONES DE DISEÑO: UN CASO PRÁCTICO</t>
+  </si>
+  <si>
+    <t>https://archivo.revistas.ucr.ac.cr//index.php/ingenieria/article/view/8220</t>
+  </si>
+  <si>
+    <t>patrones de diseño"latinoamerica"</t>
+  </si>
+  <si>
+    <t>Enseñanza de la programación orientada a objetos mediante patrones de diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrones de diseño </t>
+  </si>
+  <si>
+    <t>https://revistas.tec.ac.cr/index.php/tec_marcha/article/view/2391</t>
+  </si>
+  <si>
+    <t>Patrones
+De Alexander a la Tecnología de Objetos</t>
+  </si>
+  <si>
+    <t>https://gredos.usal.es/handle/10366/121937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>patrones basados en poo</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,6 +1533,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5225,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5380,7 @@
         <v>297</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5314,19 +5411,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="21">
         <v>2010</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>303</v>
@@ -5337,19 +5434,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="21">
         <v>2024</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>66</v>
@@ -5360,19 +5457,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="21">
         <v>2021</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="67" t="s">
         <v>66</v>
@@ -5383,19 +5480,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="21">
         <v>2009</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G7" s="67" t="s">
         <v>66</v>
@@ -5406,19 +5503,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="21">
         <v>2009</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>298</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="67" t="s">
         <v>66</v>
@@ -5429,42 +5526,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="21">
         <v>2010</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G9" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" s="21">
         <v>2007</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" s="67" t="s">
         <v>66</v>
@@ -5475,19 +5572,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="21">
         <v>2014</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" s="67" t="s">
         <v>66</v>
@@ -5497,22 +5594,22 @@
       <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="31">
-        <v>2015</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="B12" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5520,181 +5617,183 @@
       <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="35">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="64">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="31">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2002</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2015</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2012</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="35">
-        <v>2005</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="64">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="35">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="64">
+        <v>2014</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="35">
-        <v>2017</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="64">
+        <v>2013</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="35">
-        <v>2004</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="36" t="s">
+      <c r="B20" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="64">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5702,22 +5801,22 @@
       <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="35">
-        <v>2006</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="36" t="s">
+      <c r="B21" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="64">
+        <v>1998</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7348,7 +7447,7 @@
     <sortCondition ref="B2:B92"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" location="AN=130556195&amp;db=fap" xr:uid="{F01AA4CD-F853-43DE-893D-C46A51AC2BCC}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{F01AA4CD-F853-43DE-893D-C46A51AC2BCC}"/>
     <hyperlink ref="D15" r:id="rId2" xr:uid="{D9E8FB08-FB51-4B7F-804A-D15009484417}"/>
     <hyperlink ref="D33" r:id="rId3" xr:uid="{E5BEAD1A-190C-4ED3-B7E3-E6C8810FE949}"/>
     <hyperlink ref="D34" r:id="rId4" xr:uid="{BC2450EF-D361-4E1C-8B2C-EDD4D9EBE315}"/>
@@ -7367,72 +7466,73 @@
     <hyperlink ref="D47" r:id="rId17" xr:uid="{1E0C7667-8A0C-4129-AD55-61896FFD8A9C}"/>
     <hyperlink ref="D78" r:id="rId18" xr:uid="{ED2C2E3D-C8F8-4737-9400-76B94B25126B}"/>
     <hyperlink ref="D76" r:id="rId19" xr:uid="{82670C53-B3A4-4B81-90A9-457AB0FE882D}"/>
-    <hyperlink ref="D16" r:id="rId20" xr:uid="{F7DEDA02-4B2E-49CB-A748-324E93F18387}"/>
-    <hyperlink ref="D6" r:id="rId21" xr:uid="{B162D1F6-D3FD-4DF7-AB8A-0038917C9E55}"/>
-    <hyperlink ref="D32" r:id="rId22" xr:uid="{3449EBC5-D975-4257-BD6B-877F359E53EB}"/>
-    <hyperlink ref="D31" r:id="rId23" xr:uid="{5E6BA7B5-FDC6-4D97-A663-19D52F11BE8B}"/>
-    <hyperlink ref="D35" r:id="rId24" xr:uid="{3EA2D051-4814-423F-A880-D29703BA4D57}"/>
-    <hyperlink ref="D7" r:id="rId25" xr:uid="{8AB5A760-4065-4104-8AB5-0563EEAC1058}"/>
-    <hyperlink ref="D38" r:id="rId26" xr:uid="{58D57E45-45B3-4F6B-8F1E-B36D4BF68C44}"/>
-    <hyperlink ref="D39" r:id="rId27" xr:uid="{B1DE93B6-460D-4922-8BCA-51CF8ABCCFBC}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{A176CBE3-F955-4049-874F-B42EAAC2027E}"/>
-    <hyperlink ref="D2" r:id="rId29" xr:uid="{6802343D-DDC2-4D94-8017-4463DB6BC87D}"/>
-    <hyperlink ref="D27" r:id="rId30" xr:uid="{0006BC8A-E3A8-4F9F-B94F-4AF009EEBDD4}"/>
-    <hyperlink ref="D69" r:id="rId31" xr:uid="{4C7DE9A0-5C68-4508-800F-44A10ABA64B2}"/>
-    <hyperlink ref="D59" r:id="rId32" xr:uid="{E4DABA74-942D-4B38-BBE1-BEF5395E067D}"/>
-    <hyperlink ref="D70" r:id="rId33" xr:uid="{775E905F-DD25-49FC-B8A7-F218757C91C4}"/>
-    <hyperlink ref="D8" r:id="rId34" xr:uid="{3679B41C-D2A6-437E-9A47-CC84BCFB16B7}"/>
-    <hyperlink ref="D23" r:id="rId35" xr:uid="{1D36AC7D-3850-4725-B134-F19BAE6FA7F2}"/>
-    <hyperlink ref="D58" r:id="rId36" xr:uid="{B14ED6C1-BF98-435D-A1F5-E239BAB92BB3}"/>
-    <hyperlink ref="D89" r:id="rId37" xr:uid="{3A897FF2-63AB-4441-A475-2A0271ECF8DA}"/>
-    <hyperlink ref="D90" r:id="rId38" xr:uid="{7A86620D-9309-42A0-BDBD-5C6F7F68BC41}"/>
-    <hyperlink ref="D79" r:id="rId39" xr:uid="{8337E91E-240A-4001-BC68-BDFADB3BB4B4}"/>
-    <hyperlink ref="D54" r:id="rId40" xr:uid="{A99635C9-86BA-429C-82C7-72AF13E1CC1C}"/>
-    <hyperlink ref="D40" r:id="rId41" xr:uid="{F630A5DA-6F02-4941-901A-BCA0B41656D8}"/>
-    <hyperlink ref="D28" r:id="rId42" xr:uid="{858B8F09-B529-4F75-A49A-AAD1E0B459C2}"/>
-    <hyperlink ref="D17" r:id="rId43" xr:uid="{0A99CAB2-61BD-4784-BB24-362B4BBA4300}"/>
-    <hyperlink ref="D48" r:id="rId44" xr:uid="{9501DFEE-EBC1-4CFE-BD9E-5EB3FCB7BBDC}"/>
-    <hyperlink ref="D49" r:id="rId45" xr:uid="{8A723DCB-AF71-448A-8AB6-367E4E3F0F93}"/>
-    <hyperlink ref="D50" r:id="rId46" xr:uid="{9160682F-1E7B-4DEC-A868-F13D73B2CFB9}"/>
-    <hyperlink ref="D42" r:id="rId47" location="t-102445" xr:uid="{2212BC17-7323-4727-A51F-44F24013F723}"/>
-    <hyperlink ref="D91" r:id="rId48" xr:uid="{38CBD180-D0A8-42FD-A55A-F6EDF5CB9EE9}"/>
-    <hyperlink ref="D30" r:id="rId49" xr:uid="{877EC4D2-0335-4805-8C58-939544C93D08}"/>
-    <hyperlink ref="D41" r:id="rId50" xr:uid="{6D966A23-BAAA-4C29-B928-03C4E21A1F96}"/>
-    <hyperlink ref="D92" r:id="rId51" xr:uid="{C164C877-14BB-4810-B6BB-AEEC7B3D0841}"/>
-    <hyperlink ref="D63" r:id="rId52" xr:uid="{52E162F5-BD8F-4110-B90A-6CA53F7FB27A}"/>
-    <hyperlink ref="D13" r:id="rId53" xr:uid="{A845A3F5-18D7-42C6-8622-265C6EDD47B0}"/>
-    <hyperlink ref="D64" r:id="rId54" xr:uid="{00CECE32-75F2-402E-9C1D-D71237350FC5}"/>
-    <hyperlink ref="D65" r:id="rId55" xr:uid="{63F05EA2-52DF-46E3-8D50-B458E8E158A7}"/>
-    <hyperlink ref="D80" r:id="rId56" xr:uid="{5598D25D-6230-4E41-906A-10DB92F4D9BF}"/>
-    <hyperlink ref="D52" r:id="rId57" xr:uid="{6AE9F1DE-E6E4-4222-B30F-FF9EA1C69C36}"/>
-    <hyperlink ref="D19" r:id="rId58" xr:uid="{7F2174CA-EF75-478B-A07B-94E6A6DC6B53}"/>
-    <hyperlink ref="D55" r:id="rId59" xr:uid="{23E95BF5-80D8-4645-B267-0F51099A85B5}"/>
-    <hyperlink ref="D53" r:id="rId60" xr:uid="{2221D79F-5953-4F59-A620-DE3266459B59}"/>
-    <hyperlink ref="D72" r:id="rId61" location="iso:std:iso:30401:ed-1:v1:en" xr:uid="{058F8D78-8582-47FD-8821-E6D3D4BB8BA6}"/>
-    <hyperlink ref="D67" r:id="rId62" xr:uid="{561C407A-CC97-4210-BA07-7993373A7127}"/>
-    <hyperlink ref="D68" r:id="rId63" xr:uid="{282B12D9-89C2-4DB3-915E-358CAA2478CA}"/>
-    <hyperlink ref="D26" r:id="rId64" xr:uid="{C86B6683-58B2-4A98-993C-2C4B1C2D0006}"/>
-    <hyperlink ref="D20" r:id="rId65" xr:uid="{F6DA80DA-FD67-46AB-81D5-DF0FD5503F51}"/>
-    <hyperlink ref="D73" r:id="rId66" xr:uid="{171A7F5C-71A3-4686-8010-BAE176D817E1}"/>
-    <hyperlink ref="D43" r:id="rId67" xr:uid="{B03D9E1E-DE0D-4FB9-8EF4-263E90812191}"/>
-    <hyperlink ref="D44" r:id="rId68" xr:uid="{C4E5955C-2E9D-4631-83D6-66F4BA28AF24}"/>
-    <hyperlink ref="D45" r:id="rId69" xr:uid="{940ECD88-CEAE-4FFB-B40D-B9BC4FEE4E4D}"/>
-    <hyperlink ref="D81" r:id="rId70" xr:uid="{83750FA3-0061-447C-916A-3DE3FF6E6E36}"/>
-    <hyperlink ref="D82" r:id="rId71" xr:uid="{926A5796-A779-45F2-99EE-D38215D4C170}"/>
-    <hyperlink ref="D83" r:id="rId72" xr:uid="{BF3034D0-38D1-42B7-A323-1DC083AD9FF1}"/>
-    <hyperlink ref="D84" r:id="rId73" xr:uid="{5056F6A4-9F6C-4A0F-98BB-35A2FC0DFF48}"/>
-    <hyperlink ref="D85" r:id="rId74" xr:uid="{C9AC91C2-81A5-4A99-8460-F78F57F09809}"/>
-    <hyperlink ref="D86" r:id="rId75" xr:uid="{C553BBB3-713C-445F-AC6B-C6948F9FC582}"/>
-    <hyperlink ref="D87" r:id="rId76" xr:uid="{E41F7C7D-AF42-48E9-B8DF-DE00EA2F259A}"/>
-    <hyperlink ref="D88" r:id="rId77" xr:uid="{9CC18177-D73C-4FF8-8E36-179EA0DD3370}"/>
-    <hyperlink ref="D21" r:id="rId78" xr:uid="{9EBA97C7-C18C-4A22-85EC-FB321E23061E}"/>
-    <hyperlink ref="D37" r:id="rId79" xr:uid="{9F6C6577-86D2-4C9B-93FC-FAD7EDB3742A}"/>
-    <hyperlink ref="D51" r:id="rId80" xr:uid="{F6B0FB81-C76D-4A84-9736-711E7168428A}"/>
-    <hyperlink ref="D29" r:id="rId81" xr:uid="{F689FD28-4552-4D25-9308-D421BC8A9CD6}"/>
-    <hyperlink ref="D5" r:id="rId82" xr:uid="{8EC10727-B27D-4E21-B65D-2E5D302FE622}"/>
-    <hyperlink ref="D9" r:id="rId83" xr:uid="{74AD30D2-3F30-468C-8863-A625EC79A43C}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{B162D1F6-D3FD-4DF7-AB8A-0038917C9E55}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{3449EBC5-D975-4257-BD6B-877F359E53EB}"/>
+    <hyperlink ref="D31" r:id="rId22" xr:uid="{5E6BA7B5-FDC6-4D97-A663-19D52F11BE8B}"/>
+    <hyperlink ref="D35" r:id="rId23" xr:uid="{3EA2D051-4814-423F-A880-D29703BA4D57}"/>
+    <hyperlink ref="D7" r:id="rId24" xr:uid="{8AB5A760-4065-4104-8AB5-0563EEAC1058}"/>
+    <hyperlink ref="D38" r:id="rId25" xr:uid="{58D57E45-45B3-4F6B-8F1E-B36D4BF68C44}"/>
+    <hyperlink ref="D39" r:id="rId26" xr:uid="{B1DE93B6-460D-4922-8BCA-51CF8ABCCFBC}"/>
+    <hyperlink ref="D36" r:id="rId27" xr:uid="{A176CBE3-F955-4049-874F-B42EAAC2027E}"/>
+    <hyperlink ref="D2" r:id="rId28" xr:uid="{6802343D-DDC2-4D94-8017-4463DB6BC87D}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{0006BC8A-E3A8-4F9F-B94F-4AF009EEBDD4}"/>
+    <hyperlink ref="D69" r:id="rId30" xr:uid="{4C7DE9A0-5C68-4508-800F-44A10ABA64B2}"/>
+    <hyperlink ref="D59" r:id="rId31" xr:uid="{E4DABA74-942D-4B38-BBE1-BEF5395E067D}"/>
+    <hyperlink ref="D70" r:id="rId32" xr:uid="{775E905F-DD25-49FC-B8A7-F218757C91C4}"/>
+    <hyperlink ref="D8" r:id="rId33" xr:uid="{3679B41C-D2A6-437E-9A47-CC84BCFB16B7}"/>
+    <hyperlink ref="D23" r:id="rId34" xr:uid="{1D36AC7D-3850-4725-B134-F19BAE6FA7F2}"/>
+    <hyperlink ref="D58" r:id="rId35" xr:uid="{B14ED6C1-BF98-435D-A1F5-E239BAB92BB3}"/>
+    <hyperlink ref="D89" r:id="rId36" xr:uid="{3A897FF2-63AB-4441-A475-2A0271ECF8DA}"/>
+    <hyperlink ref="D90" r:id="rId37" xr:uid="{7A86620D-9309-42A0-BDBD-5C6F7F68BC41}"/>
+    <hyperlink ref="D79" r:id="rId38" xr:uid="{8337E91E-240A-4001-BC68-BDFADB3BB4B4}"/>
+    <hyperlink ref="D54" r:id="rId39" xr:uid="{A99635C9-86BA-429C-82C7-72AF13E1CC1C}"/>
+    <hyperlink ref="D40" r:id="rId40" xr:uid="{F630A5DA-6F02-4941-901A-BCA0B41656D8}"/>
+    <hyperlink ref="D28" r:id="rId41" xr:uid="{858B8F09-B529-4F75-A49A-AAD1E0B459C2}"/>
+    <hyperlink ref="D17" r:id="rId42" xr:uid="{0A99CAB2-61BD-4784-BB24-362B4BBA4300}"/>
+    <hyperlink ref="D48" r:id="rId43" xr:uid="{9501DFEE-EBC1-4CFE-BD9E-5EB3FCB7BBDC}"/>
+    <hyperlink ref="D49" r:id="rId44" xr:uid="{8A723DCB-AF71-448A-8AB6-367E4E3F0F93}"/>
+    <hyperlink ref="D50" r:id="rId45" xr:uid="{9160682F-1E7B-4DEC-A868-F13D73B2CFB9}"/>
+    <hyperlink ref="D42" r:id="rId46" location="t-102445" xr:uid="{2212BC17-7323-4727-A51F-44F24013F723}"/>
+    <hyperlink ref="D91" r:id="rId47" xr:uid="{38CBD180-D0A8-42FD-A55A-F6EDF5CB9EE9}"/>
+    <hyperlink ref="D30" r:id="rId48" xr:uid="{877EC4D2-0335-4805-8C58-939544C93D08}"/>
+    <hyperlink ref="D41" r:id="rId49" xr:uid="{6D966A23-BAAA-4C29-B928-03C4E21A1F96}"/>
+    <hyperlink ref="D92" r:id="rId50" xr:uid="{C164C877-14BB-4810-B6BB-AEEC7B3D0841}"/>
+    <hyperlink ref="D63" r:id="rId51" xr:uid="{52E162F5-BD8F-4110-B90A-6CA53F7FB27A}"/>
+    <hyperlink ref="D13" r:id="rId52" xr:uid="{A845A3F5-18D7-42C6-8622-265C6EDD47B0}"/>
+    <hyperlink ref="D64" r:id="rId53" xr:uid="{00CECE32-75F2-402E-9C1D-D71237350FC5}"/>
+    <hyperlink ref="D65" r:id="rId54" xr:uid="{63F05EA2-52DF-46E3-8D50-B458E8E158A7}"/>
+    <hyperlink ref="D80" r:id="rId55" xr:uid="{5598D25D-6230-4E41-906A-10DB92F4D9BF}"/>
+    <hyperlink ref="D52" r:id="rId56" xr:uid="{6AE9F1DE-E6E4-4222-B30F-FF9EA1C69C36}"/>
+    <hyperlink ref="D19" r:id="rId57" xr:uid="{7F2174CA-EF75-478B-A07B-94E6A6DC6B53}"/>
+    <hyperlink ref="D55" r:id="rId58" xr:uid="{23E95BF5-80D8-4645-B267-0F51099A85B5}"/>
+    <hyperlink ref="D53" r:id="rId59" xr:uid="{2221D79F-5953-4F59-A620-DE3266459B59}"/>
+    <hyperlink ref="D72" r:id="rId60" location="iso:std:iso:30401:ed-1:v1:en" xr:uid="{058F8D78-8582-47FD-8821-E6D3D4BB8BA6}"/>
+    <hyperlink ref="D67" r:id="rId61" xr:uid="{561C407A-CC97-4210-BA07-7993373A7127}"/>
+    <hyperlink ref="D68" r:id="rId62" xr:uid="{282B12D9-89C2-4DB3-915E-358CAA2478CA}"/>
+    <hyperlink ref="D26" r:id="rId63" xr:uid="{C86B6683-58B2-4A98-993C-2C4B1C2D0006}"/>
+    <hyperlink ref="D20" r:id="rId64" xr:uid="{F6DA80DA-FD67-46AB-81D5-DF0FD5503F51}"/>
+    <hyperlink ref="D73" r:id="rId65" xr:uid="{171A7F5C-71A3-4686-8010-BAE176D817E1}"/>
+    <hyperlink ref="D43" r:id="rId66" xr:uid="{B03D9E1E-DE0D-4FB9-8EF4-263E90812191}"/>
+    <hyperlink ref="D44" r:id="rId67" xr:uid="{C4E5955C-2E9D-4631-83D6-66F4BA28AF24}"/>
+    <hyperlink ref="D45" r:id="rId68" xr:uid="{940ECD88-CEAE-4FFB-B40D-B9BC4FEE4E4D}"/>
+    <hyperlink ref="D81" r:id="rId69" xr:uid="{83750FA3-0061-447C-916A-3DE3FF6E6E36}"/>
+    <hyperlink ref="D82" r:id="rId70" xr:uid="{926A5796-A779-45F2-99EE-D38215D4C170}"/>
+    <hyperlink ref="D83" r:id="rId71" xr:uid="{BF3034D0-38D1-42B7-A323-1DC083AD9FF1}"/>
+    <hyperlink ref="D84" r:id="rId72" xr:uid="{5056F6A4-9F6C-4A0F-98BB-35A2FC0DFF48}"/>
+    <hyperlink ref="D85" r:id="rId73" xr:uid="{C9AC91C2-81A5-4A99-8460-F78F57F09809}"/>
+    <hyperlink ref="D86" r:id="rId74" xr:uid="{C553BBB3-713C-445F-AC6B-C6948F9FC582}"/>
+    <hyperlink ref="D87" r:id="rId75" xr:uid="{E41F7C7D-AF42-48E9-B8DF-DE00EA2F259A}"/>
+    <hyperlink ref="D88" r:id="rId76" xr:uid="{9CC18177-D73C-4FF8-8E36-179EA0DD3370}"/>
+    <hyperlink ref="D21" r:id="rId77" xr:uid="{9EBA97C7-C18C-4A22-85EC-FB321E23061E}"/>
+    <hyperlink ref="D37" r:id="rId78" xr:uid="{9F6C6577-86D2-4C9B-93FC-FAD7EDB3742A}"/>
+    <hyperlink ref="D51" r:id="rId79" xr:uid="{F6B0FB81-C76D-4A84-9736-711E7168428A}"/>
+    <hyperlink ref="D29" r:id="rId80" xr:uid="{F689FD28-4552-4D25-9308-D421BC8A9CD6}"/>
+    <hyperlink ref="D5" r:id="rId81" xr:uid="{8EC10727-B27D-4E21-B65D-2E5D302FE622}"/>
+    <hyperlink ref="D9" r:id="rId82" xr:uid="{74AD30D2-3F30-468C-8863-A625EC79A43C}"/>
+    <hyperlink ref="D16" r:id="rId83" xr:uid="{F7DEDA02-4B2E-49CB-A748-324E93F18387}"/>
+    <hyperlink ref="D18" r:id="rId84" xr:uid="{A6D5EE43-7A52-4BCB-BC84-ECF4969BC07F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId84"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId85"/>
 </worksheet>
 </file>
--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielC\Downloads\ADSO-2901817\02-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C5C08-9BB3-4E4E-962A-611B4227D364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AEB290-181D-49EB-B425-3E7DB168E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5322,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
